--- a/Mini_Project_Sample_Data.xlsx
+++ b/Mini_Project_Sample_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\College\Semester IV\PL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nish\booking_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279A3F63-25F1-415E-9AE3-2627163CF218}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A33CF46-0426-4C96-82D2-59BFB8774425}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>rating</t>
   </si>
   <si>
-    <t>Avengers: Infinity War</t>
-  </si>
-  <si>
     <t>movie_id</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>movie_name</t>
+  </si>
+  <si>
+    <t>Avengers Endgame</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,10 +436,10 @@
   <sheetData>
     <row r="1" spans="1:6" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -459,10 +459,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="6">
         <v>4.5</v>
@@ -479,10 +479,10 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
@@ -502,7 +502,7 @@
         <v>1917</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -519,10 +519,10 @@
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6">
         <v>4.5</v>
@@ -539,10 +539,10 @@
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="6">
         <v>3.5</v>
@@ -559,10 +559,10 @@
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
